--- a/c#/ExcelToDataTable/ExcelToDataTable/bin/Debug/T.xlsx
+++ b/c#/ExcelToDataTable/ExcelToDataTable/bin/Debug/T.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,9 +154,6 @@
     <t>Singapore9</t>
   </si>
   <si>
-    <t>Singapore10</t>
-  </si>
-  <si>
     <t>Singapore11</t>
   </si>
   <si>
@@ -172,16 +169,18 @@
     <t>Singapore15</t>
   </si>
   <si>
-    <t>Singapore16</t>
-  </si>
-  <si>
     <t>Singapore17</t>
   </si>
   <si>
-    <t>Singapore18</t>
-  </si>
-  <si>
     <t>Singapore19</t>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -551,7 +550,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -613,9 +612,6 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4">
-        <v>1322233434</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
@@ -736,9 +732,6 @@
       <c r="C13">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
       <c r="E13">
         <v>1322233434</v>
       </c>
@@ -751,7 +744,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>1322233434</v>
@@ -765,7 +758,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>1322233434</v>
@@ -779,10 +772,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16">
-        <v>1322233434</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
@@ -793,7 +783,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>1322233434</v>
@@ -807,7 +797,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>1322233434</v>
@@ -820,11 +810,8 @@
       <c r="C19">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19">
-        <v>1322233434</v>
+      <c r="E19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
@@ -835,7 +822,7 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>1322233434</v>
@@ -848,9 +835,6 @@
       <c r="C21">
         <v>29</v>
       </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
       <c r="E21">
         <v>1322233434</v>
       </c>
@@ -863,10 +847,10 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22">
-        <v>1322233434</v>
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
